--- a/beadando/Posix/meresek.xlsx
+++ b/beadando/Posix/meresek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Egyetem\c_sdk_220203\parhuzamos-algoritmusok\beadando\Posix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3140A36-56C3-49E4-B08C-FA92D4D62A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDBD9C2-E24A-4DAD-8AEF-CCFDF0D537C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{983CA75E-5E40-4F44-B33F-96D5E706CA78}"/>
   </bookViews>
@@ -131,9 +131,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -141,15 +138,6 @@
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
@@ -158,14 +146,26 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -182,6 +182,1345 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Teljesítmény, szálak</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> és idő függvényében</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$D$5:$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lorem diam ipsum erat.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Munka1!$E$3:$N$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>naiv</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>KMP</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>naiv</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>KMP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>naiv</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>KMP</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>naiv</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>KMP</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>naiv</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>KMP</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>16</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$E$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.437</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2F0-4571-9CB4-610920096D44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Munka1!$E$3:$N$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>naiv</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>KMP</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>naiv</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>KMP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>naiv</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>KMP</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>naiv</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>KMP</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>naiv</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>KMP</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>16</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$E$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F2F0-4571-9CB4-610920096D44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Munka1!$E$3:$N$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>naiv</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>KMP</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>naiv</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>KMP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>naiv</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>KMP</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>naiv</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>KMP</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>naiv</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>KMP</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>16</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$E$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F2F0-4571-9CB4-610920096D44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="619492655"/>
+        <c:axId val="619490159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="619492655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Algoritmusok, szálak</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="hu-HU" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619490159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="619490159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Másodperc</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619492655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF30D6B-557B-9981-18F6-FD7C1FA12FA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBFBAA9-7886-4740-B697-797932829C8F}">
   <dimension ref="C3:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,26 +1846,26 @@
       <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12">
         <v>2</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12">
         <v>4</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1">
+      <c r="J3" s="12"/>
+      <c r="K3" s="12">
         <v>8</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12">
         <v>16</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
@@ -564,312 +1903,313 @@
       </c>
     </row>
     <row r="5" spans="3:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <v>2.8</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="5">
         <v>0.17599999999999999</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="5">
         <v>1.444</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="5">
         <v>0.09</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="5">
         <v>0.72799999999999998</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="5">
         <v>0.05</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="5">
         <v>0.437</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="5">
         <v>0.29699999999999999</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="9">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="12"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="5">
         <v>2.75</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="5">
         <v>0.2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="5">
         <v>1.4</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="5">
         <v>0.105</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="5">
         <v>0.71199999999999997</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="5">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="5">
         <v>0.376</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="5">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="5">
         <v>0.29299999999999998</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="9">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="3:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="12"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="5">
         <v>2.98</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="5">
         <v>0.183</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="5">
         <v>1.4950000000000001</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="5">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="5">
         <v>0.76800000000000002</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="5">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="5">
         <v>0.45</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="5">
         <v>2.4E-2</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="5">
         <v>0.33</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="9">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
+      <c r="C8" s="2"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
+      <c r="C9" s="2"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
+      <c r="C10" s="2"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="C16" s="2"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="7"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="C18" s="13"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="7"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="C19" s="13"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="7"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="C20" s="13"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="7"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="C21" s="13"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C22" s="8"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="E13:N13"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C5:C7"/>
     <mergeCell ref="E23:M23"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="E13:N13"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C18:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>